--- a/OBRAS DE PAVIMENTACAO-Natercio.xlsx
+++ b/OBRAS DE PAVIMENTACAO-Natercio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\apresentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61165568-64F5-408F-9D9A-0CAEC67540BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C711B9-D343-4F51-89FF-7213A5B1406D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OBRAS!$A$1:$S$120</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,9 +78,6 @@
     <t>Recape, Drenagem Superficial</t>
   </si>
   <si>
-    <t>Rua Jacarepagua</t>
-  </si>
-  <si>
     <t>Alto do Itapiraco</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
     <t>Rua 3</t>
   </si>
   <si>
-    <t>Rua dos Engenheiros</t>
-  </si>
-  <si>
     <t>Rua Santo Antonio</t>
   </si>
   <si>
@@ -541,6 +535,13 @@
   </si>
   <si>
     <t>Rua Raimundo Genesio/ Rua Principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Jacarepagua -2.517643, -44.189192
+</t>
+  </si>
+  <si>
+    <t>Rua dos Engenheiros  -2.5124537 / Longitude: -44.2028331</t>
   </si>
 </sst>
 </file>
@@ -758,10 +759,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,9 +1058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E18619-03EF-4233-B35F-2C3B35A30DD7}">
   <dimension ref="A1:S120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="A52:XFD52"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1068,7 @@
     <col min="1" max="1" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="17" customWidth="1"/>
     <col min="3" max="3" width="27" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="17" customWidth="1"/>
     <col min="5" max="5" width="33.77734375" style="17" customWidth="1"/>
     <col min="6" max="6" width="15.21875" style="17" customWidth="1"/>
     <col min="7" max="8" width="18.77734375" style="17" bestFit="1" customWidth="1"/>
@@ -1087,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1099,46 +1100,46 @@
         <v>3</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1146,13 +1147,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>8</v>
@@ -1194,13 +1195,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>8</v>
@@ -1237,13 +1238,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>8</v>
@@ -1280,13 +1281,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>8</v>
@@ -1323,13 +1324,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>8</v>
@@ -1366,13 +1367,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>8</v>
@@ -1409,16 +1410,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="19">
         <v>650</v>
@@ -1458,13 +1459,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>15</v>
@@ -1501,13 +1502,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>15</v>
@@ -1535,7 +1536,7 @@
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="24">
         <v>12495</v>
@@ -1552,13 +1553,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>15</v>
@@ -1586,7 +1587,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="5">
         <v>1682</v>
@@ -1603,13 +1604,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>15</v>
@@ -1636,7 +1637,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -1647,10 +1648,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -1696,10 +1697,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>4</v>
@@ -1745,10 +1746,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>6</v>
@@ -1788,10 +1789,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>10</v>
@@ -1831,7 +1832,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>13</v>
@@ -1874,13 +1875,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>11</v>
@@ -1917,13 +1918,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>11</v>
@@ -1960,13 +1961,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>11</v>
@@ -2003,13 +2004,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>11</v>
@@ -2046,13 +2047,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>11</v>
@@ -2089,13 +2090,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>11</v>
@@ -2132,13 +2133,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>11</v>
@@ -2175,13 +2176,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>11</v>
@@ -2218,13 +2219,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>11</v>
@@ -2261,13 +2262,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>11</v>
@@ -2304,13 +2305,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>11</v>
@@ -2347,13 +2348,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>15</v>
@@ -2396,13 +2397,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>15</v>
@@ -2445,16 +2446,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="19">
         <v>210</v>
@@ -2488,16 +2489,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="F32" s="19">
         <v>195</v>
@@ -2531,16 +2532,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="19">
         <v>200</v>
@@ -2574,16 +2575,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="19">
         <v>220</v>
@@ -2617,13 +2618,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>15</v>
@@ -2648,8 +2649,8 @@
         <v>400</v>
       </c>
       <c r="M35" s="18"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5">
         <v>2668</v>
@@ -2666,13 +2667,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>11</v>
@@ -2697,8 +2698,8 @@
         <v>1400</v>
       </c>
       <c r="M36" s="18"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -2709,16 +2710,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="23">
         <v>80</v>
@@ -2740,8 +2741,8 @@
         <v>160</v>
       </c>
       <c r="M37" s="18"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5">
         <v>2937</v>
@@ -2758,16 +2759,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F38" s="23">
         <v>800</v>
@@ -2801,16 +2802,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E39" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F39" s="23">
         <v>1000</v>
@@ -2844,16 +2845,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F40" s="23">
         <v>500</v>
@@ -2887,16 +2888,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F41" s="19">
         <v>500</v>
@@ -2936,16 +2937,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F42" s="19">
         <v>1000</v>
@@ -2979,16 +2980,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F43" s="19">
         <v>1200</v>
@@ -3022,16 +3023,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F44" s="19">
         <v>250</v>
@@ -3065,16 +3066,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F45" s="19">
         <v>300</v>
@@ -3108,16 +3109,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D46" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="F46" s="19">
         <v>200</v>
@@ -3151,13 +3152,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>15</v>
@@ -3194,16 +3195,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48" s="19">
         <v>500</v>
@@ -3237,16 +3238,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" s="18">
         <v>700</v>
@@ -3268,8 +3269,8 @@
         <v>1400</v>
       </c>
       <c r="M49" s="18"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
@@ -3280,16 +3281,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="18">
         <v>1600</v>
@@ -3323,16 +3324,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="18">
         <v>1600</v>
@@ -3366,16 +3367,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" s="27">
         <v>950</v>
@@ -3400,7 +3401,7 @@
       <c r="N52" s="24"/>
       <c r="O52" s="24"/>
       <c r="P52" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q52" s="24"/>
       <c r="R52" s="24"/>
@@ -3411,13 +3412,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>15</v>
@@ -3453,16 +3454,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54" s="18">
         <v>350</v>
@@ -3496,13 +3497,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>15</v>
@@ -3539,13 +3540,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="18">
@@ -3580,16 +3581,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="18">
         <v>500</v>
@@ -3623,16 +3624,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F58" s="18">
         <v>750</v>
@@ -3672,13 +3673,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>15</v>
@@ -3715,13 +3716,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>11</v>
@@ -3758,16 +3759,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F61" s="19">
         <v>1600</v>
@@ -3801,13 +3802,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>11</v>
@@ -3844,13 +3845,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>11</v>
@@ -3887,13 +3888,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>11</v>
@@ -3930,16 +3931,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F65" s="19">
         <v>250</v>
@@ -3973,16 +3974,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F66" s="19">
         <v>310</v>
@@ -4007,13 +4008,13 @@
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
-      <c r="Q66" s="30">
+      <c r="Q66" s="31">
         <v>6202</v>
       </c>
-      <c r="R66" s="30">
+      <c r="R66" s="31">
         <v>2492</v>
       </c>
-      <c r="S66" s="30">
+      <c r="S66" s="31">
         <v>4341</v>
       </c>
     </row>
@@ -4022,16 +4023,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F67" s="19">
         <v>1900</v>
@@ -4056,25 +4057,25 @@
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F68" s="19">
         <v>400</v>
@@ -4108,16 +4109,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F69" s="19">
         <v>500</v>
@@ -4151,16 +4152,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C70" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="E70" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F70" s="19">
         <v>250</v>
@@ -4194,16 +4195,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F71" s="19">
         <v>250</v>
@@ -4237,16 +4238,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F72" s="19">
         <v>200</v>
@@ -4280,16 +4281,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F73" s="19">
         <v>500</v>
@@ -4314,13 +4315,13 @@
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
       <c r="P73" s="12"/>
-      <c r="Q73" s="30">
+      <c r="Q73" s="31">
         <v>438</v>
       </c>
-      <c r="R73" s="30">
+      <c r="R73" s="31">
         <v>1031</v>
       </c>
-      <c r="S73" s="30">
+      <c r="S73" s="31">
         <v>1031</v>
       </c>
     </row>
@@ -4329,16 +4330,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F74" s="18">
         <v>200</v>
@@ -4363,25 +4364,25 @@
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
-      <c r="Q74" s="30"/>
-      <c r="R74" s="30"/>
-      <c r="S74" s="30"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="31"/>
     </row>
     <row r="75" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F75" s="18">
         <v>1000</v>
@@ -4406,22 +4407,22 @@
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="30"/>
-      <c r="S75" s="30"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>15</v>
@@ -4449,13 +4450,13 @@
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
-      <c r="Q76" s="30">
+      <c r="Q76" s="31">
         <v>1622</v>
       </c>
-      <c r="R76" s="30">
+      <c r="R76" s="31">
         <v>12537</v>
       </c>
-      <c r="S76" s="30">
+      <c r="S76" s="31">
         <v>12537</v>
       </c>
     </row>
@@ -4464,13 +4465,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>15</v>
@@ -4498,25 +4499,25 @@
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="30"/>
-      <c r="S77" s="30"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
     </row>
     <row r="78" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F78" s="19">
         <v>150</v>
@@ -4541,25 +4542,25 @@
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
-      <c r="Q78" s="30"/>
-      <c r="R78" s="30"/>
-      <c r="S78" s="30"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="31"/>
     </row>
     <row r="79" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F79" s="19">
         <v>240</v>
@@ -4584,25 +4585,25 @@
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
-      <c r="Q79" s="30"/>
-      <c r="R79" s="30"/>
-      <c r="S79" s="30"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F80" s="19">
         <v>270</v>
@@ -4627,25 +4628,25 @@
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
-      <c r="Q80" s="30"/>
-      <c r="R80" s="30"/>
-      <c r="S80" s="30"/>
+      <c r="Q80" s="31"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="31"/>
     </row>
     <row r="81" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F81" s="19">
         <v>100</v>
@@ -4670,25 +4671,25 @@
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
-      <c r="Q81" s="30"/>
-      <c r="R81" s="30"/>
-      <c r="S81" s="30"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F82" s="19">
         <v>70</v>
@@ -4713,22 +4714,22 @@
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="31"/>
     </row>
     <row r="83" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>15</v>
@@ -4756,25 +4757,25 @@
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
-      <c r="Q83" s="30"/>
-      <c r="R83" s="30"/>
-      <c r="S83" s="30"/>
+      <c r="Q83" s="31"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F84" s="19">
         <v>170</v>
@@ -4799,25 +4800,25 @@
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
+      <c r="Q84" s="31"/>
+      <c r="R84" s="31"/>
+      <c r="S84" s="31"/>
     </row>
     <row r="85" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F85" s="19">
         <v>180</v>
@@ -4842,25 +4843,25 @@
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
-      <c r="Q85" s="30"/>
-      <c r="R85" s="30"/>
-      <c r="S85" s="30"/>
+      <c r="Q85" s="31"/>
+      <c r="R85" s="31"/>
+      <c r="S85" s="31"/>
     </row>
     <row r="86" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F86" s="19">
         <v>350</v>
@@ -4885,23 +4886,23 @@
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="5"/>
-      <c r="Q86" s="30"/>
-      <c r="R86" s="30"/>
-      <c r="S86" s="30"/>
+      <c r="Q86" s="31"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="31"/>
     </row>
     <row r="87" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
@@ -4929,14 +4930,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
@@ -4964,16 +4965,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F89" s="18">
         <v>100</v>
@@ -5007,16 +5008,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F90" s="18">
         <v>100</v>
@@ -5050,16 +5051,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F91" s="18">
         <v>120</v>
@@ -5093,16 +5094,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F92" s="18">
         <v>100</v>
@@ -5136,16 +5137,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F93" s="18">
         <v>300</v>
@@ -5179,16 +5180,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F94" s="18">
         <v>100</v>
@@ -5222,16 +5223,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="F95" s="18">
         <v>150</v>
@@ -5265,16 +5266,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F96" s="18">
         <v>250</v>
@@ -5308,16 +5309,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F97" s="18">
         <v>200</v>
@@ -5351,16 +5352,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F98" s="18">
         <v>220</v>
@@ -5394,16 +5395,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F99" s="18">
         <v>350</v>
@@ -5437,16 +5438,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F100" s="18">
         <v>400</v>
@@ -5480,16 +5481,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F101" s="18">
         <v>250</v>
@@ -5523,16 +5524,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F102" s="18">
         <v>250</v>
@@ -5566,16 +5567,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F103" s="18">
         <v>250</v>
@@ -5609,16 +5610,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E104" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="F104" s="18">
         <v>250</v>
@@ -5652,16 +5653,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F105" s="18">
         <v>250</v>
@@ -5695,16 +5696,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F106" s="18">
         <v>250</v>
@@ -5744,16 +5745,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F107" s="19">
         <v>700</v>
@@ -5793,10 +5794,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="2"/>
@@ -5829,12 +5830,12 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
-      <c r="B109" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
+      <c r="B109" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
       <c r="F109" s="21">
         <f>SUM(F2:F108) /1000</f>
         <v>54.542000000000002</v>
@@ -5947,6 +5948,15 @@
     <sortCondition ref="C2:C18"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="Q76:Q86"/>
+    <mergeCell ref="R76:R86"/>
+    <mergeCell ref="S76:S86"/>
+    <mergeCell ref="S73:S75"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="Q73:Q75"/>
+    <mergeCell ref="R73:R75"/>
+    <mergeCell ref="S66:S67"/>
     <mergeCell ref="B109:E109"/>
     <mergeCell ref="N35:N37"/>
     <mergeCell ref="O35:O37"/>
@@ -5956,15 +5966,6 @@
     <mergeCell ref="O47:O49"/>
     <mergeCell ref="N41:N46"/>
     <mergeCell ref="O41:O46"/>
-    <mergeCell ref="Q76:Q86"/>
-    <mergeCell ref="R76:R86"/>
-    <mergeCell ref="S76:S86"/>
-    <mergeCell ref="S73:S75"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="Q73:Q75"/>
-    <mergeCell ref="R73:R75"/>
-    <mergeCell ref="S66:S67"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OBRAS DE PAVIMENTACAO-Natercio.xlsx
+++ b/OBRAS DE PAVIMENTACAO-Natercio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\apresentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D261922D-E118-4F8E-A6B5-7E4A4101E875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EC17A2-BE2A-43BD-8431-AB936D4331BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +526,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -640,7 +648,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,6 +757,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1035,8 +1046,8 @@
   <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2047,7 +2058,7 @@
       <c r="C24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="35" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="18">
@@ -2087,7 +2098,7 @@
       <c r="C25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E25" s="18">
@@ -2127,7 +2138,7 @@
       <c r="C26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="35" t="s">
         <v>78</v>
       </c>
       <c r="E26" s="18">
@@ -2167,7 +2178,7 @@
       <c r="C27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="35" t="s">
         <v>85</v>
       </c>
       <c r="E27" s="18">
@@ -2207,7 +2218,7 @@
       <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="35" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="18">
@@ -2247,7 +2258,7 @@
       <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="18">
@@ -2293,7 +2304,7 @@
       <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="18">
@@ -2339,7 +2350,7 @@
       <c r="C31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="35" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="18">
@@ -2379,7 +2390,7 @@
       <c r="C32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="35" t="s">
         <v>50</v>
       </c>
       <c r="E32" s="18">
@@ -2419,7 +2430,7 @@
       <c r="C33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="35" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="18">
@@ -2459,7 +2470,7 @@
       <c r="C34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="35" t="s">
         <v>65</v>
       </c>
       <c r="E34" s="18">
@@ -2499,7 +2510,7 @@
       <c r="C35" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="35" t="s">
         <v>95</v>
       </c>
       <c r="E35" s="22">
@@ -2545,7 +2556,7 @@
       <c r="C36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="35" t="s">
         <v>108</v>
       </c>
       <c r="E36" s="22">
@@ -2585,7 +2596,7 @@
       <c r="C37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="35" t="s">
         <v>94</v>
       </c>
       <c r="E37" s="22">
@@ -2631,7 +2642,7 @@
       <c r="C38" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="35" t="s">
         <v>134</v>
       </c>
       <c r="E38" s="22">
@@ -2671,7 +2682,7 @@
       <c r="C39" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="35" t="s">
         <v>135</v>
       </c>
       <c r="E39" s="22">
@@ -2711,7 +2722,7 @@
       <c r="C40" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="35" t="s">
         <v>136</v>
       </c>
       <c r="E40" s="22">
@@ -2751,7 +2762,7 @@
       <c r="C41" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="36" t="s">
         <v>63</v>
       </c>
       <c r="E41" s="18">
@@ -2797,7 +2808,7 @@
       <c r="C42" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="36" t="s">
         <v>129</v>
       </c>
       <c r="E42" s="18">
@@ -2837,7 +2848,7 @@
       <c r="C43" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="36" t="s">
         <v>109</v>
       </c>
       <c r="E43" s="18">
@@ -2877,7 +2888,7 @@
       <c r="C44" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="36" t="s">
         <v>132</v>
       </c>
       <c r="E44" s="18">
@@ -2917,7 +2928,7 @@
       <c r="C45" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="36" t="s">
         <v>130</v>
       </c>
       <c r="E45" s="18">
@@ -2957,7 +2968,7 @@
       <c r="C46" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="36" t="s">
         <v>131</v>
       </c>
       <c r="E46" s="18">
@@ -2997,7 +3008,7 @@
       <c r="C47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="35" t="s">
         <v>45</v>
       </c>
       <c r="E47" s="18">
@@ -3037,7 +3048,7 @@
       <c r="C48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="35" t="s">
         <v>60</v>
       </c>
       <c r="E48" s="18">
@@ -3077,7 +3088,7 @@
       <c r="C49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="34" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="17">
@@ -3117,7 +3128,7 @@
       <c r="C50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="35" t="s">
         <v>61</v>
       </c>
       <c r="E50" s="17">
@@ -3157,7 +3168,7 @@
       <c r="C51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="35" t="s">
         <v>62</v>
       </c>
       <c r="E51" s="17">
@@ -3197,7 +3208,7 @@
       <c r="C52" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="35" t="s">
         <v>109</v>
       </c>
       <c r="E52" s="26">
@@ -3239,7 +3250,7 @@
       <c r="C53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="34" t="s">
         <v>71</v>
       </c>
       <c r="E53" s="17">
@@ -3278,7 +3289,7 @@
       <c r="C54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="35" t="s">
         <v>73</v>
       </c>
       <c r="E54" s="17">
@@ -3318,7 +3329,7 @@
       <c r="C55" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="35" t="s">
         <v>74</v>
       </c>
       <c r="E55" s="17">
@@ -3358,7 +3369,7 @@
       <c r="C56" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="35" t="s">
         <v>72</v>
       </c>
       <c r="E56" s="17">
@@ -3398,7 +3409,7 @@
       <c r="C57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E57" s="17">

--- a/OBRAS DE PAVIMENTACAO-Natercio.xlsx
+++ b/OBRAS DE PAVIMENTACAO-Natercio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\apresentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EC17A2-BE2A-43BD-8431-AB936D4331BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38543EB1-6C8C-4328-B3F8-DFA940247880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,8 +1046,8 @@
   <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3449,7 +3449,7 @@
       <c r="C58" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="35" t="s">
         <v>44</v>
       </c>
       <c r="E58" s="17">
@@ -3495,7 +3495,7 @@
       <c r="C59" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="35" t="s">
         <v>46</v>
       </c>
       <c r="E59" s="18">
@@ -3535,7 +3535,7 @@
       <c r="C60" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E60" s="17">
@@ -3575,7 +3575,7 @@
       <c r="C61" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="35" t="s">
         <v>31</v>
       </c>
       <c r="E61" s="18">
@@ -3615,7 +3615,7 @@
       <c r="C62" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="35" t="s">
         <v>56</v>
       </c>
       <c r="E62" s="18">

--- a/OBRAS DE PAVIMENTACAO-Natercio.xlsx
+++ b/OBRAS DE PAVIMENTACAO-Natercio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\apresentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38543EB1-6C8C-4328-B3F8-DFA940247880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CB7563-86E6-416D-891B-4F3AF90E21B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +654,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,6 +766,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1046,8 +1061,8 @@
   <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3655,7 +3670,7 @@
       <c r="C63" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="35" t="s">
         <v>55</v>
       </c>
       <c r="E63" s="18">
@@ -3695,7 +3710,7 @@
       <c r="C64" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="35" t="s">
         <v>54</v>
       </c>
       <c r="E64" s="18">
@@ -3735,7 +3750,7 @@
       <c r="C65" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="35" t="s">
         <v>53</v>
       </c>
       <c r="E65" s="18">
@@ -3775,7 +3790,7 @@
       <c r="C66" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="34" t="s">
         <v>32</v>
       </c>
       <c r="E66" s="18">
@@ -3821,7 +3836,7 @@
       <c r="C67" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="35" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="18">
@@ -3861,7 +3876,7 @@
       <c r="C68" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="38" t="s">
         <v>98</v>
       </c>
       <c r="E68" s="18">
@@ -3901,7 +3916,7 @@
       <c r="C69" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="38" t="s">
         <v>100</v>
       </c>
       <c r="E69" s="18">
@@ -3941,7 +3956,7 @@
       <c r="C70" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="38" t="s">
         <v>99</v>
       </c>
       <c r="E70" s="18">
@@ -3981,7 +3996,7 @@
       <c r="C71" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="38" t="s">
         <v>101</v>
       </c>
       <c r="E71" s="18">
@@ -4107,7 +4122,7 @@
       <c r="C74" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="35" t="s">
         <v>49</v>
       </c>
       <c r="E74" s="17">
@@ -4147,7 +4162,7 @@
       <c r="C75" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="35" t="s">
         <v>70</v>
       </c>
       <c r="E75" s="17">
@@ -4187,7 +4202,7 @@
       <c r="C76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="36" t="s">
         <v>66</v>
       </c>
       <c r="E76" s="18">
@@ -4233,7 +4248,7 @@
       <c r="C77" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="39" t="s">
         <v>154</v>
       </c>
       <c r="E77" s="18">
@@ -4273,7 +4288,7 @@
       <c r="C78" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="36" t="s">
         <v>147</v>
       </c>
       <c r="E78" s="18">
@@ -4313,7 +4328,7 @@
       <c r="C79" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="36" t="s">
         <v>151</v>
       </c>
       <c r="E79" s="18">
@@ -4353,7 +4368,7 @@
       <c r="C80" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="40" t="s">
         <v>150</v>
       </c>
       <c r="E80" s="18">
@@ -4393,7 +4408,7 @@
       <c r="C81" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="39" t="s">
         <v>149</v>
       </c>
       <c r="E81" s="18">
@@ -4433,7 +4448,7 @@
       <c r="C82" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="36" t="s">
         <v>148</v>
       </c>
       <c r="E82" s="18">
@@ -4473,7 +4488,7 @@
       <c r="C83" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="36" t="s">
         <v>68</v>
       </c>
       <c r="E83" s="18">
@@ -4513,7 +4528,7 @@
       <c r="C84" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="36" t="s">
         <v>67</v>
       </c>
       <c r="E84" s="18">

--- a/OBRAS DE PAVIMENTACAO-Natercio.xlsx
+++ b/OBRAS DE PAVIMENTACAO-Natercio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\apresentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CB7563-86E6-416D-891B-4F3AF90E21B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EB467E-B5DD-446D-AA26-1462CCBD6C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1061,8 +1061,8 @@
   <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4568,7 +4568,7 @@
       <c r="C85" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="39" t="s">
         <v>146</v>
       </c>
       <c r="E85" s="18">
@@ -4608,7 +4608,7 @@
       <c r="C86" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="39" t="s">
         <v>152</v>
       </c>
       <c r="E86" s="18">
@@ -4648,7 +4648,7 @@
       <c r="C87" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D87" s="8"/>
+      <c r="D87" s="39"/>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
@@ -4680,7 +4680,7 @@
       <c r="C88" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="1"/>
+      <c r="D88" s="34"/>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
@@ -4712,7 +4712,7 @@
       <c r="C89" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="34" t="s">
         <v>121</v>
       </c>
       <c r="E89" s="17">
@@ -4752,7 +4752,7 @@
       <c r="C90" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="34" t="s">
         <v>122</v>
       </c>
       <c r="E90" s="17">
@@ -4792,7 +4792,7 @@
       <c r="C91" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="34" t="s">
         <v>123</v>
       </c>
       <c r="E91" s="17">
@@ -4832,7 +4832,7 @@
       <c r="C92" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="34" t="s">
         <v>124</v>
       </c>
       <c r="E92" s="17">
@@ -4872,7 +4872,7 @@
       <c r="C93" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="35" t="s">
         <v>125</v>
       </c>
       <c r="E93" s="17">
@@ -4912,7 +4912,7 @@
       <c r="C94" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="34" t="s">
         <v>126</v>
       </c>
       <c r="E94" s="17">
@@ -4952,7 +4952,7 @@
       <c r="C95" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="35" t="s">
         <v>127</v>
       </c>
       <c r="E95" s="17">
@@ -4992,7 +4992,7 @@
       <c r="C96" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E96" s="17">
@@ -5032,7 +5032,7 @@
       <c r="C97" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="35" t="s">
         <v>145</v>
       </c>
       <c r="E97" s="17">
@@ -5072,7 +5072,7 @@
       <c r="C98" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="34" t="s">
         <v>144</v>
       </c>
       <c r="E98" s="17">
@@ -5112,7 +5112,7 @@
       <c r="C99" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="35" t="s">
         <v>143</v>
       </c>
       <c r="E99" s="17">
@@ -5152,7 +5152,7 @@
       <c r="C100" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="34" t="s">
         <v>142</v>
       </c>
       <c r="E100" s="17">
@@ -5192,7 +5192,7 @@
       <c r="C101" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="34" t="s">
         <v>141</v>
       </c>
       <c r="E101" s="17">
@@ -5232,7 +5232,7 @@
       <c r="C102" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="35" t="s">
         <v>140</v>
       </c>
       <c r="E102" s="17">
@@ -5272,7 +5272,7 @@
       <c r="C103" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="35" t="s">
         <v>139</v>
       </c>
       <c r="E103" s="17">
@@ -5312,7 +5312,7 @@
       <c r="C104" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="35" t="s">
         <v>137</v>
       </c>
       <c r="E104" s="17">
@@ -5352,7 +5352,7 @@
       <c r="C105" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="35" t="s">
         <v>49</v>
       </c>
       <c r="E105" s="17">
@@ -5392,7 +5392,7 @@
       <c r="C106" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="35" t="s">
         <v>138</v>
       </c>
       <c r="E106" s="17">
@@ -5438,7 +5438,7 @@
       <c r="C107" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="D107" s="36" t="s">
         <v>64</v>
       </c>
       <c r="E107" s="18">
